--- a/Tabela_Fipe_Erros.xlsx
+++ b/Tabela_Fipe_Erros.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moltt\Documents\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AC7A96-5F5D-4F9E-9A5A-55339165512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -106,7 +100,7 @@
     <t>2014/2015</t>
   </si>
   <si>
-    <t>Pequisa fora do padrao</t>
+    <t>R$ 45.387,00</t>
   </si>
   <si>
     <t>R$ 29.941,00</t>
@@ -115,8 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,19 +173,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -233,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,16 +460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -565,7 +513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -582,7 +530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -595,11 +543,8 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -612,11 +557,8 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -628,9 +570,6 @@
       </c>
       <c r="G6" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela_Fipe_Erros.xlsx
+++ b/Tabela_Fipe_Erros.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>CONTRATO</t>
   </si>
@@ -43,13 +43,7 @@
     <t>Status Aprovação</t>
   </si>
   <si>
-    <t>14-1132569/22</t>
-  </si>
-  <si>
-    <t>14-1081377/22</t>
-  </si>
-  <si>
-    <t>14-1081379/22</t>
+    <t>42-221506/19</t>
   </si>
   <si>
     <t>14-1081378/22</t>
@@ -58,10 +52,7 @@
     <t>14-1081376/22</t>
   </si>
   <si>
-    <t>FIAT</t>
-  </si>
-  <si>
-    <t>CITROEN</t>
+    <t>SCANIA</t>
   </si>
   <si>
     <t>GM - Chevrolet</t>
@@ -70,13 +61,7 @@
     <t>Citroën</t>
   </si>
   <si>
-    <t>UNO ATTRACTIVE 1.0 Fire Flex 8V 5p</t>
-  </si>
-  <si>
-    <t>C4 - 0P -  - Picasso/Pic. La Luna 2.0 16V  Aut.</t>
-  </si>
-  <si>
-    <t>Ducato - 0P -  - MaxiCargo/Furgão Maxi 2.8 TB Dies</t>
+    <t>R-113 - 2P - Básico - H 360 4x2 2p (diesel)</t>
   </si>
   <si>
     <t>CAPTIVA SPORT FWD 2.4 16V 171/185cv</t>
@@ -85,13 +70,7 @@
     <t>C3 - 0P - Básico - Tendance 1.6 VTi Flex Start 16V Aut.</t>
   </si>
   <si>
-    <t>2019/2019</t>
-  </si>
-  <si>
-    <t>2010/2010</t>
-  </si>
-  <si>
-    <t>2009/2009</t>
+    <t>1995/1995</t>
   </si>
   <si>
     <t>2008/2009</t>
@@ -100,10 +79,7 @@
     <t>2014/2015</t>
   </si>
   <si>
-    <t>R$ 45.387,00</t>
-  </si>
-  <si>
-    <t>R$ 29.941,00</t>
+    <t>Erro inesperado, notifique o programador.</t>
   </si>
 </sst>
 </file>
@@ -501,75 +477,44 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
